--- a/src/Data/Scalability/CluStream/Clustream-MicroCluster-KDD98-LatencyPerMc-xParallelism.xlsx
+++ b/src/Data/Scalability/CluStream/Clustream-MicroCluster-KDD98-LatencyPerMc-xParallelism.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Documents/ISCAS/StreamingML/document/clustering/streamclustering/TestResult/pic/0519MicroClusters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Repositories/PythonGraph/src/Data/Scalability/CluStream/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="41660" yWindow="2920" windowWidth="25600" windowHeight="15540"/>
+    <workbookView xWindow="29860" yWindow="3400" windowWidth="25600" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,27 +57,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MicroclustersNumber25</t>
+    <t>micro-cluster=25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MicroclustersNumber50</t>
+    <t>micro-cluster=50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MicroclustersNumber75</t>
+    <t>micro-cluster=75</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MicroclustersNumber100</t>
+    <t>micro-cluster=100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MicroclustersNumber125</t>
+    <t>micro-cluster=125</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MicroclustersNumber150</t>
+    <t>micro-cluster=150</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
